--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -386,12 +386,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -826,7 +922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,11 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1243,10 +1339,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A14"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A16"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -482,12 +482,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out for some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -922,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1403,10 +1451,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A16"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A17"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -530,12 +530,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not feeling well</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -978,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1507,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A17"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A18"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -73,6 +73,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office not able to connect</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G4" authorId="0">
       <text>
         <r>
@@ -551,6 +575,30 @@
           </rPr>
           <t xml:space="preserve">
 Not feeling well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Feeling well</t>
         </r>
       </text>
     </comment>
@@ -559,7 +607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -994,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1587,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A18"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A19"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -97,6 +97,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G4" authorId="0">
       <text>
         <r>
@@ -122,6 +146,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H5" authorId="0">
       <text>
         <r>
@@ -146,6 +218,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
@@ -218,6 +338,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G9" authorId="0">
       <text>
         <r>
@@ -242,6 +411,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G10" authorId="0">
       <text>
         <r>
@@ -266,6 +483,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
@@ -314,6 +580,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -386,6 +700,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G14" authorId="0">
       <text>
         <r>
@@ -410,6 +820,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G15" authorId="0">
       <text>
         <r>
@@ -458,6 +916,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G16" authorId="0">
       <text>
         <r>
@@ -506,6 +1012,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E17" authorId="0">
       <text>
         <r>
@@ -554,6 +1108,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H18" authorId="0">
       <text>
         <r>
@@ -578,6 +1180,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="I18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C19" authorId="0">
       <text>
         <r>
@@ -599,6 +1249,150 @@
           </rPr>
           <t xml:space="preserve">
 Not Feeling well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Having no electricity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
         </r>
       </text>
     </comment>
@@ -607,7 +1401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -1042,7 +1836,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,11 +1844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1619,10 +2413,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A19"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A20"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1396,12 +1396,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out For Some Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office she is not able to join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to join </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -1836,7 +1908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1844,11 +1916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2445,10 +2517,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A20"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A21"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1468,12 +1468,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office not able to join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -1908,7 +1980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1916,11 +1988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2549,10 +2621,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A21"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A22"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1540,12 +1540,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -1980,7 +2100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1988,11 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2653,10 +2773,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A22"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A23"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1660,12 +1660,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -2100,7 +2148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2108,11 +2156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2805,10 +2853,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A23"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A24"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -166,11 +166,204 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not able to join because of travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Daughter is not well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Not Informed</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Had a celebration at home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,31 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not able to join because of travelling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +411,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,31 +459,104 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Daughter is not well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,56 +580,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Had a celebration at home</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +628,175 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +820,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +892,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +964,511 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out for some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not feeling well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Feeling well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Having no electricity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out For Some Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office she is not able to join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work load she is not able to join </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,152 +1492,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="I22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office not able to join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -652,7 +1564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment ref="G23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0">
+    <comment ref="H23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,918 +1612,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Out for some work</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not feeling well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Feeling well</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Having no electricity</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to attend.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Out For Some Work</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office she is not able to join</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office work load she is not able to join </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Due to office not able to join</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-due to work load cant join</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not informed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dell:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not informed</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I23" authorId="0">
       <text>
         <r>
@@ -1685,6 +1685,54 @@
       </text>
     </comment>
     <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -2148,7 +2196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2156,11 +2204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2885,10 +2933,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A24"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A25"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1756,12 +1756,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="C27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Having celebration at home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -2196,7 +2292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2204,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2965,10 +3061,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A25"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A27"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1852,12 +1852,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out for some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -2292,7 +2436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2300,11 +2444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3098,10 +3242,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A27"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A28"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -1996,12 +1996,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="I29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2037,6 +2085,9 @@
   </si>
   <si>
     <t>Adhyayani Dhawale</t>
+  </si>
+  <si>
+    <t>Snehal Jalit</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2444,11 +2495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2489,6 +2540,9 @@
       <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2917,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45157</v>
       </c>
@@ -2949,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45159</v>
       </c>
@@ -2981,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45160</v>
       </c>
@@ -3013,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45161</v>
       </c>
@@ -3045,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45162</v>
       </c>
@@ -3077,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45163</v>
       </c>
@@ -3109,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45164</v>
       </c>
@@ -3141,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45166</v>
       </c>
@@ -3173,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45167</v>
       </c>
@@ -3205,12 +3259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45168</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45169</v>
       </c>
@@ -3242,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45170</v>
       </c>
@@ -3272,12 +3326,47 @@
       </c>
       <c r="J28" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A28"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A29"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2044,12 +2044,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="D30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2487,7 +2607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2495,11 +2615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3363,10 +3483,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A29"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A30"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2164,12 +2164,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="G31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dueto work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2607,7 +2679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2615,11 +2687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3518,10 +3590,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A30"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A31"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2236,12 +2236,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+having network issue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+having some work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2679,7 +2799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2687,11 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3625,10 +3745,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A31"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A32"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2356,12 +2356,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load cant join</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2799,7 +2895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2807,11 +2903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3780,10 +3876,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A32"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A33"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2452,12 +2452,252 @@
         </r>
       </text>
     </comment>
+    <comment ref="D34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work cant join </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to worl load cant join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work load</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -2895,7 +3135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2903,11 +3143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3911,10 +4151,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A33"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A35"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2692,12 +2692,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="I36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3143,11 +3263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4221,10 +4341,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A35"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A37"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2812,12 +2812,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="H38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3255,7 +3327,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3263,11 +3335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4411,10 +4483,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A37"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -2884,12 +2884,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="E40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3327,7 +3447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3335,11 +3455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4518,10 +4638,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -3004,12 +3004,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3447,7 +3567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3455,11 +3575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4673,10 +4793,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40:A41"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -3124,12 +3124,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3567,7 +3831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3575,11 +3839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4828,10 +5092,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40:A41"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40:A43"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/B8-G1 Team_Everyday_Attendence.xlsx
+++ b/B8-G1 Team_Everyday_Attendence.xlsx
@@ -3388,12 +3388,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="B44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to exam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -3831,7 +4023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3839,11 +4031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5162,10 +5354,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40:A43"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A38 A40:A45"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
